--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM Health Data Connect Common Data Model definition of what fields we currently define for a patient</t>
+    <t>Health Data Connect Common Data Model definition of what fields we currently define for a patient</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -745,6 +745,39 @@
   </si>
   <si>
     <t>Indicates whether the individual served in the active military, naval, or air service</t>
+  </si>
+  <si>
+    <t>snapshotAgeInWeeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/snapshot-age-in-weeks}
+</t>
+  </si>
+  <si>
+    <t>Age in weeks of the patient at a point in time</t>
+  </si>
+  <si>
+    <t>Age in weeks at the patient at a point in time</t>
+  </si>
+  <si>
+    <t>snapshotAgeInMonths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/snapshot-age-in-months}
+</t>
+  </si>
+  <si>
+    <t>Age in months of the patient at a point in time</t>
+  </si>
+  <si>
+    <t>snapshotAgeCalculated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/snapshot-age-calculated}
+</t>
+  </si>
+  <si>
+    <t>Date indicating when the age fields were calculated</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -1870,7 +1903,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN90"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1879,43 +1912,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.6796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="80.89453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="62.87890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
@@ -6795,30 +6828,32 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>234</v>
@@ -6826,12 +6861,8 @@
       <c r="L44" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>237</v>
-      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6879,7 +6910,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6888,13 +6919,13 @@
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -6911,9 +6942,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6922,7 +6955,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -6934,18 +6967,16 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6993,7 +7024,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -7005,10 +7036,10 @@
         <v>97</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7017,7 +7048,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7025,9 +7056,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7048,13 +7081,13 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7105,22 +7138,22 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -7137,11 +7170,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7154,7 +7187,7 @@
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>78</v>
@@ -7163,15 +7196,17 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7207,19 +7242,19 @@
         <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7234,7 +7269,7 @@
         <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7251,11 +7286,9 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7264,7 +7297,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7276,16 +7309,18 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>252</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7333,7 +7368,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7342,13 +7377,13 @@
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -7357,7 +7392,7 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7365,7 +7400,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7382,26 +7417,22 @@
         <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7425,13 +7456,13 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>78</v>
@@ -7449,7 +7480,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7461,10 +7492,10 @@
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -7473,7 +7504,7 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7481,18 +7512,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -7501,23 +7532,21 @@
         <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7541,44 +7570,46 @@
         <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Y50" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>269</v>
+        <v>175</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -7587,7 +7618,7 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7595,9 +7626,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B51" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="C51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7615,23 +7648,19 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7643,7 +7672,7 @@
         <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>78</v>
@@ -7679,22 +7708,22 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -7703,7 +7732,7 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -7711,7 +7740,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7719,7 +7748,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>85</v>
@@ -7728,24 +7757,26 @@
         <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7757,7 +7788,7 @@
         <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>78</v>
@@ -7769,13 +7800,13 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>78</v>
@@ -7793,7 +7824,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7808,7 +7839,7 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -7817,7 +7848,7 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -7825,7 +7856,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7848,16 +7879,20 @@
         <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7881,13 +7916,11 @@
         <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>78</v>
@@ -7905,7 +7938,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7920,7 +7953,7 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -7929,7 +7962,7 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -7937,7 +7970,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7960,18 +7993,20 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>296</v>
+        <v>101</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>78</v>
       </c>
@@ -7983,7 +8018,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8019,7 +8054,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -8034,7 +8069,7 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8043,7 +8078,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8051,7 +8086,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8059,7 +8094,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>85</v>
@@ -8068,32 +8103,28 @@
         <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>304</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="P55" t="s" s="2">
-        <v>309</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8101,7 +8132,7 @@
         <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>78</v>
@@ -8137,7 +8168,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8152,16 +8183,16 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8169,7 +8200,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8180,7 +8211,7 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8192,20 +8223,16 @@
         <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8253,13 +8280,13 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
@@ -8268,16 +8295,16 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8285,7 +8312,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8296,7 +8323,7 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8305,23 +8332,21 @@
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8369,22 +8394,22 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8393,7 +8418,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8401,7 +8426,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8418,30 +8443,32 @@
         <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="P58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="Q58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8461,13 +8488,13 @@
         <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>78</v>
@@ -8485,7 +8512,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8500,16 +8527,16 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>336</v>
+        <v>172</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8517,7 +8544,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8528,7 +8555,7 @@
         <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -8540,19 +8567,19 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -8601,13 +8628,13 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
@@ -8616,24 +8643,24 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8644,31 +8671,31 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -8717,31 +8744,31 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8749,7 +8776,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8760,7 +8787,7 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -8769,22 +8796,22 @@
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>357</v>
+        <v>107</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -8809,13 +8836,13 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>78</v>
@@ -8833,31 +8860,31 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>362</v>
+        <v>149</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>78</v>
+        <v>346</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -8865,7 +8892,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8885,20 +8912,22 @@
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>183</v>
+        <v>349</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -8923,13 +8952,13 @@
         <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>78</v>
@@ -8947,7 +8976,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8962,24 +8991,24 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8996,25 +9025,25 @@
         <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9063,7 +9092,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9078,7 +9107,7 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>172</v>
@@ -9087,7 +9116,7 @@
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9095,7 +9124,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9118,19 +9147,19 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9179,7 +9208,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9188,22 +9217,22 @@
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9211,7 +9240,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9222,7 +9251,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9234,19 +9263,17 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>390</v>
+        <v>183</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9271,13 +9298,13 @@
         <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>78</v>
@@ -9295,31 +9322,31 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>172</v>
+        <v>381</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9327,7 +9354,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9350,16 +9377,20 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>384</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>169</v>
+        <v>385</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9407,7 +9438,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>171</v>
+        <v>383</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9419,19 +9450,19 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9439,11 +9470,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9462,18 +9493,20 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>248</v>
+        <v>393</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>249</v>
+        <v>394</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9521,7 +9554,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>175</v>
+        <v>391</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9533,19 +9566,19 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK67" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9557,7 +9590,7 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9570,13 +9603,13 @@
         <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>131</v>
+        <v>400</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>401</v>
@@ -9585,10 +9618,10 @@
         <v>402</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>236</v>
+        <v>403</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>237</v>
+        <v>404</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>78</v>
@@ -9637,7 +9670,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -9649,13 +9682,13 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>137</v>
+        <v>405</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>406</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9669,7 +9702,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9680,7 +9713,7 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
@@ -9692,18 +9725,16 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>405</v>
+        <v>169</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>406</v>
+        <v>170</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>407</v>
-      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9727,13 +9758,13 @@
         <v>78</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>409</v>
+        <v>78</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>78</v>
@@ -9751,31 +9782,31 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>404</v>
+        <v>171</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>410</v>
+        <v>172</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>411</v>
+        <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -9783,18 +9814,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -9806,18 +9837,18 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>413</v>
+        <v>258</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>78</v>
       </c>
@@ -9865,31 +9896,31 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>412</v>
+        <v>175</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>317</v>
+        <v>172</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -9897,11 +9928,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9914,25 +9945,25 @@
         <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>321</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>323</v>
+        <v>412</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>418</v>
+        <v>246</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -9981,7 +10012,7 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9990,13 +10021,13 @@
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>326</v>
+        <v>137</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>327</v>
+        <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10005,7 +10036,7 @@
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10013,7 +10044,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10024,7 +10055,7 @@
         <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>78</v>
@@ -10036,19 +10067,17 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>357</v>
+        <v>183</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10073,13 +10102,13 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>78</v>
@@ -10097,31 +10126,31 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10129,7 +10158,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10152,17 +10181,17 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>107</v>
+        <v>322</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>330</v>
+        <v>423</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10187,13 +10216,13 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>78</v>
@@ -10211,7 +10240,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10226,7 +10255,7 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>149</v>
+        <v>327</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>172</v>
@@ -10235,7 +10264,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10243,7 +10272,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10254,7 +10283,7 @@
         <v>76</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10266,17 +10295,19 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>426</v>
+        <v>332</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="N74" t="s" s="2">
-        <v>428</v>
+        <v>335</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10325,31 +10356,31 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>429</v>
+        <v>97</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>430</v>
+        <v>337</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>431</v>
+        <v>338</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10357,7 +10388,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10380,16 +10411,20 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>433</v>
+        <v>368</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10437,7 +10472,7 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -10446,22 +10481,22 @@
         <v>85</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>435</v>
+        <v>372</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10469,7 +10504,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10480,7 +10515,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10492,19 +10527,17 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>390</v>
+        <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>437</v>
+        <v>340</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -10529,13 +10562,13 @@
         <v>78</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>78</v>
@@ -10553,13 +10586,13 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
@@ -10568,16 +10601,16 @@
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>441</v>
+        <v>149</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>442</v>
+        <v>172</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>78</v>
+        <v>434</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10585,7 +10618,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10608,16 +10641,18 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>87</v>
+        <v>306</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>169</v>
+        <v>436</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>170</v>
+        <v>437</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
       </c>
@@ -10665,7 +10700,7 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>171</v>
+        <v>435</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -10674,22 +10709,22 @@
         <v>85</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK77" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10697,7 +10732,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10708,7 +10743,7 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -10720,13 +10755,13 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>132</v>
+        <v>443</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>133</v>
+        <v>444</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10765,35 +10800,37 @@
         <v>78</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB78" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AC78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>175</v>
+        <v>442</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
@@ -10807,11 +10844,9 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
         <v>78</v>
       </c>
@@ -10820,7 +10855,7 @@
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -10832,16 +10867,20 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>446</v>
+        <v>400</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>447</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>78</v>
       </c>
@@ -10889,7 +10928,7 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>175</v>
+        <v>446</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -10898,16 +10937,16 @@
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>78</v>
@@ -10921,43 +10960,39 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>401</v>
+        <v>169</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11005,22 +11040,22 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>403</v>
+        <v>171</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11037,7 +11072,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11045,10 +11080,10 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11060,20 +11095,16 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>450</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11097,55 +11128,53 @@
         <v>78</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB81" s="2"/>
       <c r="AC81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>449</v>
+        <v>175</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>454</v>
+        <v>78</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>456</v>
+        <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11153,9 +11182,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="C82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11176,20 +11207,16 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>304</v>
+        <v>456</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11237,31 +11264,31 @@
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>457</v>
+        <v>175</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>463</v>
+        <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>464</v>
+        <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11269,11 +11296,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11286,24 +11313,26 @@
         <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>466</v>
+        <v>131</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
       </c>
@@ -11351,7 +11380,7 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -11363,10 +11392,10 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>470</v>
+        <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -11383,7 +11412,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11391,7 +11420,7 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>85</v>
@@ -11403,22 +11432,22 @@
         <v>78</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>296</v>
+        <v>183</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -11443,13 +11472,13 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>78</v>
@@ -11467,10 +11496,10 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>85</v>
@@ -11482,16 +11511,16 @@
         <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11499,7 +11528,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11510,31 +11539,31 @@
         <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>390</v>
+        <v>314</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -11583,13 +11612,13 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>78</v>
@@ -11598,16 +11627,16 @@
         <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>172</v>
+        <v>473</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -11615,7 +11644,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11626,7 +11655,7 @@
         <v>76</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>78</v>
@@ -11638,15 +11667,17 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>87</v>
+        <v>476</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>169</v>
+        <v>477</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>78</v>
@@ -11695,22 +11726,22 @@
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>171</v>
+        <v>475</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>172</v>
+        <v>480</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -11727,18 +11758,18 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>78</v>
@@ -11747,21 +11778,23 @@
         <v>78</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>248</v>
+        <v>482</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>249</v>
+        <v>483</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>78</v>
       </c>
@@ -11809,25 +11842,25 @@
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>175</v>
+        <v>481</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>172</v>
+        <v>440</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>78</v>
@@ -11841,11 +11874,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11864,19 +11897,19 @@
         <v>86</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>131</v>
+        <v>400</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>401</v>
+        <v>488</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>402</v>
+        <v>489</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>236</v>
+        <v>490</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>237</v>
+        <v>491</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>78</v>
@@ -11925,7 +11958,7 @@
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>403</v>
+        <v>487</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -11937,13 +11970,13 @@
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>492</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
@@ -11957,7 +11990,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11965,7 +11998,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>85</v>
@@ -11977,20 +12010,18 @@
         <v>78</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>487</v>
+        <v>87</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>488</v>
+        <v>169</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>78</v>
@@ -12039,10 +12070,10 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>486</v>
+        <v>171</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>85</v>
@@ -12051,19 +12082,19 @@
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>491</v>
+        <v>172</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12071,18 +12102,18 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>78</v>
@@ -12091,18 +12122,20 @@
         <v>78</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>494</v>
+        <v>258</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>78</v>
@@ -12127,57 +12160,399 @@
         <v>78</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="X90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="Y90" t="s" s="2">
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AF90" t="s" s="2">
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AG90" t="s" s="2">
+      <c r="F92" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AH90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI90" t="s" s="2">
+      <c r="G92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI92" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ90" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AK90" t="s" s="2">
+      <c r="AJ92" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AL90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN90" t="s" s="2">
+      <c r="AL92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="509">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,271 +278,275 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Patient.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Patient.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Patient.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Patient.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Patient.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/ethnicity}
+</t>
+  </si>
+  <si>
+    <t>Code for the ethnicity of the person</t>
+  </si>
+  <si>
+    <t>familyId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/family-id}
+</t>
+  </si>
+  <si>
+    <t>The unique identifier for the subscriber (contract holder, employee) and the associated dependents</t>
+  </si>
+  <si>
+    <t>usCoreBirthSex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex}
+</t>
+  </si>
+  <si>
+    <t>A code classifying the person’s sex assigned at birth as specified by the Office of the National Coordinator for Health IT (ONC)</t>
+  </si>
+  <si>
+    <t>A code classifying the person’s sex assigned at birth as specified by the Office of the National Coordinator for Health IT (ONC). This extension aligns with the C-CDA Birth Sex Observation (LOINC 76689-9).</t>
+  </si>
+  <si>
+    <t>The codes required are intended to present birth sex (i.e., the sex recorded on the patient’s birth certificate) and not gender identity or reassigned sex.</t>
+  </si>
+  <si>
+    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
+  </si>
+  <si>
+    <t>usCoreRace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-race}
+</t>
+  </si>
+  <si>
+    <t>Complex extension for race allows one or more race codes</t>
+  </si>
+  <si>
+    <t>Complex extension for race allows one or more race codes. Must Support at least one code from OMB Race Categories. May include additional race codes from CDC Race Codes. Must include text description of race.</t>
+  </si>
+  <si>
+    <t>usCoreEthnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity}
+</t>
+  </si>
+  <si>
+    <t>Complex extension for ethnicity allows one or more ethnicity codes</t>
+  </si>
+  <si>
+    <t>Complex extension for ethnicity allows one or more rethnicityce codes. Must Support at least one code from OMB Ethnicity Categories. May include additional ethnicity codes from CDC Ethnicity Codes. Must include text description of ethnicity.</t>
+  </si>
+  <si>
+    <t>immigrationStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/immigration-status}
+</t>
+  </si>
+  <si>
+    <t>Customer-specific code for the immigration status of the patient</t>
+  </si>
+  <si>
+    <t>Customer-specific code for the immigration status of the person</t>
+  </si>
+  <si>
+    <t>statusCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/status-code}
+</t>
+  </si>
+  <si>
+    <t>Customer-specific patient status codes</t>
+  </si>
+  <si>
+    <t>patientImportance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-importance}
+</t>
+  </si>
+  <si>
+    <t>The importance of the patient.  For example: VIP, DO-NOT-CONTACT, etc.</t>
+  </si>
+  <si>
+    <t>Patient.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Patient.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Patient.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Patient.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Patient.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Patient.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Patient.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/ethnicity}
-</t>
-  </si>
-  <si>
-    <t>Code for the ethnicity of the person</t>
-  </si>
-  <si>
-    <t>familyId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/family-id}
-</t>
-  </si>
-  <si>
-    <t>The unique identifier for the subscriber (contract holder, employee) and the associated dependents</t>
-  </si>
-  <si>
-    <t>usCoreBirthSex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex}
-</t>
-  </si>
-  <si>
-    <t>A code classifying the person’s sex assigned at birth as specified by the Office of the National Coordinator for Health IT (ONC)</t>
-  </si>
-  <si>
-    <t>A code classifying the person’s sex assigned at birth as specified by the Office of the National Coordinator for Health IT (ONC). This extension aligns with the C-CDA Birth Sex Observation (LOINC 76689-9).</t>
-  </si>
-  <si>
-    <t>The codes required are intended to present birth sex (i.e., the sex recorded on the patient’s birth certificate) and not gender identity or reassigned sex.</t>
-  </si>
-  <si>
-    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
-  </si>
-  <si>
-    <t>usCoreRace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-race}
-</t>
-  </si>
-  <si>
-    <t>Complex extension for race allows one or more race codes</t>
-  </si>
-  <si>
-    <t>Complex extension for race allows one or more race codes. Must Support at least one code from OMB Race Categories. May include additional race codes from CDC Race Codes. Must include text description of race.</t>
-  </si>
-  <si>
-    <t>usCoreEthnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity}
-</t>
-  </si>
-  <si>
-    <t>Complex extension for ethnicity allows one or more ethnicity codes</t>
-  </si>
-  <si>
-    <t>Complex extension for ethnicity allows one or more rethnicityce codes. Must Support at least one code from OMB Ethnicity Categories. May include additional ethnicity codes from CDC Ethnicity Codes. Must include text description of ethnicity.</t>
-  </si>
-  <si>
-    <t>immigrationStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/immigration-status}
-</t>
-  </si>
-  <si>
-    <t>Customer-specific code for the immigration status of the patient</t>
-  </si>
-  <si>
-    <t>Customer-specific code for the immigration status of the person</t>
-  </si>
-  <si>
-    <t>statusCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/status-code}
-</t>
-  </si>
-  <si>
-    <t>Customer-specific patient status codes</t>
-  </si>
-  <si>
-    <t>patientImportance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-importance}
-</t>
-  </si>
-  <si>
-    <t>The importance of the patient.  For example: VIP, DO-NOT-CONTACT, etc.</t>
-  </si>
-  <si>
-    <t>Patient.extension.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3919,13 +3923,13 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3976,7 +3980,7 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3991,7 +3995,7 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4008,7 +4012,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4079,7 +4083,7 @@
         <v>134</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>78</v>
@@ -4088,7 +4092,7 @@
         <v>135</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4120,7 +4124,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4146,13 +4150,13 @@
         <v>101</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4160,7 +4164,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>78</v>
@@ -4202,7 +4206,7 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>85</v>
@@ -4234,7 +4238,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4257,13 +4261,13 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4302,17 +4306,17 @@
         <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -4344,10 +4348,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>78</v>
@@ -4369,13 +4373,13 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4402,11 +4406,11 @@
         <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>78</v>
@@ -4424,7 +4428,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -4459,7 +4463,7 @@
         <v>130</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>78</v>
@@ -4481,13 +4485,13 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4573,7 +4577,7 @@
         <v>130</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>78</v>
@@ -4595,13 +4599,13 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4707,13 +4711,13 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4764,7 +4768,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4779,7 +4783,7 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4796,7 +4800,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4867,7 +4871,7 @@
         <v>134</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>78</v>
@@ -4876,7 +4880,7 @@
         <v>135</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4908,7 +4912,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4934,13 +4938,13 @@
         <v>101</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4948,7 +4952,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>78</v>
@@ -4990,7 +4994,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>85</v>
@@ -5022,7 +5026,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5045,13 +5049,13 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5090,17 +5094,17 @@
         <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5132,10 +5136,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>78</v>
@@ -5157,13 +5161,13 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5190,11 +5194,11 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -5212,7 +5216,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5247,7 +5251,7 @@
         <v>130</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>78</v>
@@ -5269,13 +5273,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5361,7 +5365,7 @@
         <v>130</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>78</v>
@@ -5383,13 +5387,13 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5475,7 +5479,7 @@
         <v>130</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>78</v>
@@ -5497,13 +5501,13 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5609,13 +5613,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5666,7 +5670,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5681,7 +5685,7 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5698,7 +5702,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5769,7 +5773,7 @@
         <v>134</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>78</v>
@@ -5778,7 +5782,7 @@
         <v>135</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5810,7 +5814,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5836,13 +5840,13 @@
         <v>101</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5850,7 +5854,7 @@
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>78</v>
@@ -5892,7 +5896,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>85</v>
@@ -5924,7 +5928,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5947,13 +5951,13 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5980,27 +5984,27 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -6032,10 +6036,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>78</v>
@@ -6057,13 +6061,13 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6090,11 +6094,11 @@
         <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>78</v>
@@ -6112,7 +6116,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6147,7 +6151,7 @@
         <v>130</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>78</v>
@@ -6169,13 +6173,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6261,7 +6265,7 @@
         <v>130</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>78</v>
@@ -6283,13 +6287,13 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6375,7 +6379,7 @@
         <v>130</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>78</v>
@@ -6397,13 +6401,13 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6489,7 +6493,7 @@
         <v>130</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>78</v>
@@ -6511,13 +6515,13 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6603,7 +6607,7 @@
         <v>130</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>78</v>
@@ -6625,13 +6629,13 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6717,7 +6721,7 @@
         <v>130</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>78</v>
@@ -6739,13 +6743,13 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6831,7 +6835,7 @@
         <v>130</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>78</v>
@@ -6853,13 +6857,13 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6945,7 +6949,7 @@
         <v>130</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>78</v>
@@ -6967,13 +6971,13 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7059,7 +7063,7 @@
         <v>130</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>78</v>
@@ -7081,13 +7085,13 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7170,11 +7174,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7196,16 +7200,16 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7254,7 +7258,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7286,7 +7290,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7309,17 +7313,17 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
@@ -7368,7 +7372,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7383,7 +7387,7 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -7392,7 +7396,7 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7400,7 +7404,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7423,13 +7427,13 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7480,7 +7484,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7495,7 +7499,7 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -7512,11 +7516,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7538,13 +7542,13 @@
         <v>131</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7585,7 +7589,7 @@
         <v>134</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>78</v>
@@ -7594,7 +7598,7 @@
         <v>135</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7609,7 +7613,7 @@
         <v>137</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -7626,10 +7630,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>78</v>
@@ -7651,13 +7655,13 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7708,7 +7712,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7740,7 +7744,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7766,16 +7770,16 @@
         <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7800,13 +7804,13 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>78</v>
@@ -7824,7 +7828,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7839,7 +7843,7 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -7856,7 +7860,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7879,19 +7883,19 @@
         <v>86</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
@@ -7916,11 +7920,11 @@
         <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>78</v>
@@ -7938,7 +7942,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7953,7 +7957,7 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -7962,7 +7966,7 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -7970,7 +7974,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7996,16 +8000,16 @@
         <v>101</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>78</v>
@@ -8018,7 +8022,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8054,7 +8058,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -8069,7 +8073,7 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8078,7 +8082,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8086,7 +8090,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8109,16 +8113,16 @@
         <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8132,7 +8136,7 @@
         <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>78</v>
@@ -8168,7 +8172,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8183,7 +8187,7 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -8192,7 +8196,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8200,7 +8204,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8223,13 +8227,13 @@
         <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8280,7 +8284,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8295,7 +8299,7 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8304,7 +8308,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8312,7 +8316,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8335,16 +8339,16 @@
         <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8394,7 +8398,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8409,7 +8413,7 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8418,7 +8422,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8426,7 +8430,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8449,70 +8453,70 @@
         <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="Q58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8530,10 +8534,10 @@
         <v>162</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8544,7 +8548,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8567,19 +8571,19 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -8628,7 +8632,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8643,16 +8647,16 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8660,7 +8664,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8683,19 +8687,19 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -8744,7 +8748,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -8756,10 +8760,10 @@
         <v>97</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -8768,7 +8772,7 @@
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8776,7 +8780,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8802,16 +8806,16 @@
         <v>107</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -8836,13 +8840,13 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>78</v>
@@ -8860,7 +8864,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8878,13 +8882,13 @@
         <v>149</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -8892,7 +8896,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8915,19 +8919,19 @@
         <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -8976,7 +8980,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8991,24 +8995,24 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9031,19 +9035,19 @@
         <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9092,7 +9096,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9107,16 +9111,16 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9124,7 +9128,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9147,19 +9151,19 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9208,7 +9212,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9223,7 +9227,7 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -9232,7 +9236,7 @@
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9240,7 +9244,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9263,17 +9267,17 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9298,13 +9302,13 @@
         <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>78</v>
@@ -9322,7 +9326,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9337,16 +9341,16 @@
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9354,7 +9358,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9377,19 +9381,19 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9438,7 +9442,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9453,16 +9457,16 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9470,7 +9474,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9493,19 +9497,19 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9554,7 +9558,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9569,16 +9573,16 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9586,7 +9590,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9609,19 +9613,19 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>78</v>
@@ -9670,7 +9674,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -9682,13 +9686,13 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9702,7 +9706,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9725,13 +9729,13 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9782,7 +9786,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -9797,7 +9801,7 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -9814,11 +9818,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9840,13 +9844,13 @@
         <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9896,7 +9900,7 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9911,7 +9915,7 @@
         <v>137</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -9928,11 +9932,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9954,16 +9958,16 @@
         <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -10012,7 +10016,7 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -10044,7 +10048,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10067,17 +10071,17 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10102,13 +10106,13 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>78</v>
@@ -10126,7 +10130,7 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -10141,16 +10145,16 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10158,7 +10162,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10181,17 +10185,17 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10240,7 +10244,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10255,16 +10259,16 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10272,7 +10276,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10295,19 +10299,19 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10356,7 +10360,7 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10368,10 +10372,10 @@
         <v>97</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -10380,7 +10384,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10388,7 +10392,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10411,19 +10415,19 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>78</v>
@@ -10472,7 +10476,7 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -10487,7 +10491,7 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -10496,7 +10500,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10504,7 +10508,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10530,14 +10534,14 @@
         <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -10562,13 +10566,13 @@
         <v>78</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>78</v>
@@ -10586,7 +10590,7 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
@@ -10604,13 +10608,13 @@
         <v>149</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10618,7 +10622,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10641,17 +10645,17 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
@@ -10700,7 +10704,7 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -10709,22 +10713,22 @@
         <v>85</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10732,7 +10736,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10755,13 +10759,13 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10812,7 +10816,7 @@
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -10827,10 +10831,10 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
@@ -10844,7 +10848,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10867,19 +10871,19 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>78</v>
@@ -10928,7 +10932,7 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -10943,10 +10947,10 @@
         <v>98</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>78</v>
@@ -10960,7 +10964,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10983,13 +10987,13 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11040,7 +11044,7 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -11055,7 +11059,7 @@
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11072,7 +11076,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11150,7 +11154,7 @@
         <v>135</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -11182,10 +11186,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>78</v>
@@ -11207,13 +11211,13 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11264,7 +11268,7 @@
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
@@ -11296,11 +11300,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11322,16 +11326,16 @@
         <v>131</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
@@ -11380,7 +11384,7 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -11412,7 +11416,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11435,19 +11439,19 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -11496,7 +11500,7 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>85</v>
@@ -11511,16 +11515,16 @@
         <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11528,7 +11532,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11551,19 +11555,19 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -11612,7 +11616,7 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -11627,16 +11631,16 @@
         <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -11644,7 +11648,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11667,16 +11671,16 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11726,7 +11730,7 @@
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -11741,7 +11745,7 @@
         <v>98</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -11758,7 +11762,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11781,19 +11785,19 @@
         <v>86</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>78</v>
@@ -11842,7 +11846,7 @@
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -11857,10 +11861,10 @@
         <v>98</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>78</v>
@@ -11874,7 +11878,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11897,19 +11901,19 @@
         <v>86</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>78</v>
@@ -11958,7 +11962,7 @@
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -11973,10 +11977,10 @@
         <v>98</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
@@ -11990,7 +11994,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12013,13 +12017,13 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12070,7 +12074,7 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -12085,7 +12089,7 @@
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12102,11 +12106,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12128,13 +12132,13 @@
         <v>131</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12184,7 +12188,7 @@
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -12199,7 +12203,7 @@
         <v>137</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -12216,11 +12220,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12242,16 +12246,16 @@
         <v>131</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>78</v>
@@ -12300,7 +12304,7 @@
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -12332,7 +12336,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12355,16 +12359,16 @@
         <v>86</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12414,7 +12418,7 @@
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>85</v>
@@ -12429,16 +12433,16 @@
         <v>98</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12446,7 +12450,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12472,10 +12476,10 @@
         <v>107</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12502,13 +12506,13 @@
         <v>78</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>78</v>
@@ -12526,7 +12530,7 @@
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>85</v>
@@ -12541,10 +12545,10 @@
         <v>98</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-cdm-patient.xlsx
+++ b/StructureDefinition-cdm-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-patient</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-patient</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Health Data Connect Common Data Model definition of what fields we currently define for a patient</t>
+    <t>LinuxForHealth Common Data Model definition of what fields we currently define for a patient</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -259,10 +259,6 @@
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -297,7 +293,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -447,7 +443,7 @@
     <t>ethnicity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/ethnicity}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/ethnicity}
 </t>
   </si>
   <si>
@@ -457,7 +453,7 @@
     <t>familyId</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/family-id}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/family-id}
 </t>
   </si>
   <si>
@@ -512,7 +508,7 @@
     <t>immigrationStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/immigration-status}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/immigration-status}
 </t>
   </si>
   <si>
@@ -525,7 +521,7 @@
     <t>statusCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/status-code}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/status-code}
 </t>
   </si>
   <si>
@@ -617,13 +613,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/patient-importance</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/patient-importance</t>
   </si>
   <si>
     <t>localRaceCd</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/local-race-cd}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/local-race-cd}
 </t>
   </si>
   <si>
@@ -633,26 +629,26 @@
     <t>patientCitizenship</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/patient-citizenship}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/patient-citizenship}
 </t>
   </si>
   <si>
     <t>Code to identify if the patient is a U.S. Citizen</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/patient-citizenship</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/patient-citizenship</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/citizenship</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/citizenship</t>
   </si>
   <si>
     <t>citizenStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/citizen-status}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/citizen-status}
 </t>
   </si>
   <si>
@@ -662,7 +658,7 @@
     <t>sexAssignedAtBirth</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/sex-assigned-at-birth}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/sex-assigned-at-birth}
 </t>
   </si>
   <si>
@@ -688,13 +684,13 @@
     <t>http://hl7.org/fhir/ValueSet/gender-identity</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/gender-identity</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/gender-identity</t>
   </si>
   <si>
     <t>identifiedPronouns</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/identified-pronouns}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/identified-pronouns}
 </t>
   </si>
   <si>
@@ -704,7 +700,7 @@
     <t>legallyDocumentedSex</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/legally-documented-sex}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/legally-documented-sex}
 </t>
   </si>
   <si>
@@ -714,7 +710,7 @@
     <t>sexualOrientation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/sexual-orientation}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/sexual-orientation}
 </t>
   </si>
   <si>
@@ -724,7 +720,7 @@
     <t>communicationOptOut</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/communication-opt-out}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/communication-opt-out}
 </t>
   </si>
   <si>
@@ -734,7 +730,7 @@
     <t>nonstandardLanguage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/nonstandard-language}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/nonstandard-language}
 </t>
   </si>
   <si>
@@ -744,7 +740,7 @@
     <t>veteranIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/veteran-indicator}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/veteran-indicator}
 </t>
   </si>
   <si>
@@ -754,7 +750,7 @@
     <t>snapshotAgeInWeeks</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/snapshot-age-in-weeks}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/snapshot-age-in-weeks}
 </t>
   </si>
   <si>
@@ -767,7 +763,7 @@
     <t>snapshotAgeInMonths</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/snapshot-age-in-months}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/snapshot-age-in-months}
 </t>
   </si>
   <si>
@@ -777,7 +773,7 @@
     <t>snapshotAgeCalculated</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/snapshot-age-calculated}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/snapshot-age-calculated}
 </t>
   </si>
   <si>
@@ -810,7 +806,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://ibm.com/fhir/cdm/StructureDefinition/cdm-identifier}
+    <t xml:space="preserve">Identifier {http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-identifier}
 </t>
   </si>
   <si>
@@ -844,7 +840,7 @@
     <t>encryptedState</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/encrypted-state}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/encrypted-state}
 </t>
   </si>
   <si>
@@ -896,7 +892,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/identifier-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1062,7 +1058,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {http://ibm.com/fhir/cdm/StructureDefinition/cdm-contact-point}
+    <t xml:space="preserve">ContactPoint {http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-contact-point}
 </t>
   </si>
   <si>
@@ -1174,7 +1170,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://ibm.com/fhir/cdm/StructureDefinition/cdm-address}
+    <t xml:space="preserve">Address {http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-address}
 </t>
   </si>
   <si>
@@ -1452,7 +1448,7 @@
     <t>languageRank</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/language-rank}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/language-rank}
 </t>
   </si>
   <si>
@@ -1513,7 +1509,7 @@
     <t>Patient.generalPractitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole) {http://ibm.com/fhir/cdm/StructureDefinition/reference-with-code-and-period}
+    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole) {http://linuxforhealth.org/fhir/cdm/StructureDefinition/reference-with-code-and-period}
 </t>
   </si>
   <si>
@@ -1940,7 +1936,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="80.89453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.37890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2174,13 +2170,13 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
@@ -2194,7 +2190,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2205,28 +2201,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2276,13 +2272,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2308,7 +2304,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2319,7 +2315,7 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>78</v>
@@ -2331,13 +2327,13 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2388,22 +2384,22 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2420,7 +2416,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2431,28 +2427,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2502,19 +2498,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2534,7 +2530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2545,7 +2541,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2557,16 +2553,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2592,43 +2588,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2648,18 +2644,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2671,16 +2667,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2730,22 +2726,22 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -2762,11 +2758,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2785,16 +2781,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2844,7 +2840,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -2859,7 +2855,7 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -2876,7 +2872,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2899,13 +2895,13 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2944,17 +2940,17 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2966,7 +2962,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -2986,10 +2982,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>78</v>
@@ -2999,7 +2995,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>78</v>
@@ -3011,13 +3007,13 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3068,7 +3064,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -3077,10 +3073,10 @@
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3100,10 +3096,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>78</v>
@@ -3125,13 +3121,13 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3182,7 +3178,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3191,10 +3187,10 @@
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3214,10 +3210,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>78</v>
@@ -3227,7 +3223,7 @@
         <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>78</v>
@@ -3239,16 +3235,16 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3298,7 +3294,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3307,13 +3303,13 @@
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3330,10 +3326,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
@@ -3343,7 +3339,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -3355,13 +3351,13 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3412,7 +3408,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -3421,10 +3417,10 @@
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
@@ -3444,10 +3440,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>78</v>
@@ -3457,7 +3453,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -3469,13 +3465,13 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3526,7 +3522,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3535,10 +3531,10 @@
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
@@ -3558,10 +3554,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>78</v>
@@ -3571,7 +3567,7 @@
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -3583,13 +3579,13 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3640,7 +3636,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -3649,10 +3645,10 @@
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
@@ -3672,10 +3668,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>78</v>
@@ -3697,13 +3693,13 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3754,7 +3750,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -3763,10 +3759,10 @@
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>78</v>
@@ -3786,10 +3782,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>78</v>
@@ -3799,7 +3795,7 @@
         <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -3811,13 +3807,13 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3868,7 +3864,7 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3877,10 +3873,10 @@
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
@@ -3900,7 +3896,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3911,7 +3907,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
@@ -3923,13 +3919,13 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3980,22 +3976,22 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4012,7 +4008,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4035,13 +4031,13 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4080,19 +4076,19 @@
         <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AE19" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4104,7 +4100,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -4124,7 +4120,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4132,10 +4128,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -4147,16 +4143,16 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4164,55 +4160,55 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="R20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="AF20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
@@ -4221,7 +4217,7 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
@@ -4238,7 +4234,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4246,10 +4242,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -4261,13 +4257,13 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4306,32 +4302,32 @@
         <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AE21" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -4348,20 +4344,20 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4373,13 +4369,13 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4406,11 +4402,11 @@
         <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>78</v>
@@ -4428,22 +4424,22 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -4460,10 +4456,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>78</v>
@@ -4473,7 +4469,7 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4485,13 +4481,13 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4542,7 +4538,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4551,10 +4547,10 @@
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
@@ -4574,10 +4570,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>78</v>
@@ -4599,13 +4595,13 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4656,7 +4652,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4665,10 +4661,10 @@
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
@@ -4688,7 +4684,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4699,7 +4695,7 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
@@ -4711,13 +4707,13 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4768,22 +4764,22 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4800,7 +4796,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4823,13 +4819,13 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4868,19 +4864,19 @@
         <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AB26" t="s" s="2">
+      <c r="AE26" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4892,7 +4888,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
@@ -4912,7 +4908,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4920,10 +4916,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -4935,16 +4931,16 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4952,7 +4948,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>78</v>
@@ -4994,13 +4990,13 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
@@ -5009,7 +5005,7 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -5026,7 +5022,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5037,7 +5033,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5049,13 +5045,13 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5094,32 +5090,32 @@
         <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AE28" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5136,10 +5132,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>78</v>
@@ -5149,7 +5145,7 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5161,13 +5157,13 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="L29" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5194,11 +5190,11 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -5216,22 +5212,22 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -5248,10 +5244,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>78</v>
@@ -5261,7 +5257,7 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -5273,13 +5269,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5330,7 +5326,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5339,10 +5335,10 @@
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5362,10 +5358,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>78</v>
@@ -5375,7 +5371,7 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5387,13 +5383,13 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="L31" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5444,7 +5440,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5453,10 +5449,10 @@
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5476,10 +5472,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>78</v>
@@ -5489,7 +5485,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5501,13 +5497,13 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="L32" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5558,7 +5554,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5567,10 +5563,10 @@
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5590,7 +5586,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5601,7 +5597,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -5613,13 +5609,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5670,22 +5666,22 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5702,7 +5698,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5725,13 +5721,13 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5770,19 +5766,19 @@
         <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AB34" t="s" s="2">
+      <c r="AE34" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5794,7 +5790,7 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -5814,7 +5810,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5822,10 +5818,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -5837,16 +5833,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5854,7 +5850,7 @@
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>78</v>
@@ -5896,13 +5892,13 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
@@ -5911,7 +5907,7 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5928,7 +5924,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5936,10 +5932,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -5951,13 +5947,13 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5984,42 +5980,42 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AE36" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6036,20 +6032,20 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6061,13 +6057,13 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6094,11 +6090,11 @@
         <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>78</v>
@@ -6116,22 +6112,22 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6148,10 +6144,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>78</v>
@@ -6173,13 +6169,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="L38" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6230,7 +6226,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6239,10 +6235,10 @@
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6262,10 +6258,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>78</v>
@@ -6275,7 +6271,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6287,13 +6283,13 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K39" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="L39" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6344,7 +6340,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6353,10 +6349,10 @@
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6376,10 +6372,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>78</v>
@@ -6389,7 +6385,7 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6401,13 +6397,13 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K40" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="L40" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6458,7 +6454,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6467,10 +6463,10 @@
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -6490,10 +6486,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>78</v>
@@ -6515,13 +6511,13 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K41" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="L41" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6572,7 +6568,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6581,10 +6577,10 @@
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -6604,10 +6600,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>78</v>
@@ -6617,7 +6613,7 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -6629,13 +6625,13 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K42" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="L42" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6686,7 +6682,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6695,10 +6691,10 @@
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
@@ -6718,10 +6714,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>78</v>
@@ -6731,7 +6727,7 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -6743,13 +6739,13 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K43" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="L43" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6800,7 +6796,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6809,10 +6805,10 @@
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
@@ -6832,10 +6828,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>78</v>
@@ -6845,7 +6841,7 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -6857,13 +6853,13 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6914,7 +6910,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6923,10 +6919,10 @@
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
@@ -6946,10 +6942,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>78</v>
@@ -6959,7 +6955,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -6971,13 +6967,13 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="L45" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7028,7 +7024,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -7037,10 +7033,10 @@
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
@@ -7060,10 +7056,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>78</v>
@@ -7073,7 +7069,7 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -7085,13 +7081,13 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="L46" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7142,7 +7138,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7151,10 +7147,10 @@
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7174,11 +7170,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7191,25 +7187,25 @@
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7258,7 +7254,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7270,10 +7266,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7290,7 +7286,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7313,17 +7309,17 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
@@ -7372,7 +7368,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7381,22 +7377,22 @@
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI48" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AI48" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AJ48" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7404,7 +7400,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7415,7 +7411,7 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7427,13 +7423,13 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7484,22 +7480,22 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -7516,11 +7512,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7539,16 +7535,16 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="M50" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7586,19 +7582,19 @@
         <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AB50" t="s" s="2">
+      <c r="AE50" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7610,10 +7606,10 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -7630,10 +7626,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>78</v>
@@ -7643,7 +7639,7 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -7655,13 +7651,13 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K51" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="L51" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7712,7 +7708,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7724,7 +7720,7 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -7744,7 +7740,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7755,31 +7751,31 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I52" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7804,55 +7800,55 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="X52" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="X52" t="s" s="2">
+      <c r="Y52" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="Y52" t="s" s="2">
+      <c r="Z52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE52" t="s" s="2">
+      <c r="AF52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AF52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -7860,7 +7856,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7871,31 +7867,31 @@
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
@@ -7920,53 +7916,53 @@
         <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AF53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -7974,7 +7970,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7985,31 +7981,31 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>78</v>
@@ -8022,67 +8018,67 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="T54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8090,7 +8086,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8098,31 +8094,31 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8136,67 +8132,67 @@
         <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="T55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE55" t="s" s="2">
+      <c r="AF55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AK55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8204,7 +8200,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8215,25 +8211,25 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J56" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8284,31 +8280,31 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8316,7 +8312,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8327,28 +8323,28 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J57" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8398,31 +8394,31 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
+      <c r="AK57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8430,7 +8426,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8441,103 +8437,103 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I58" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P58" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="O58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P58" t="s" s="2">
+      <c r="Q58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="Q58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8548,7 +8544,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8568,22 +8564,22 @@
         <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -8632,7 +8628,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8644,19 +8640,19 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8664,7 +8660,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8687,19 +8683,19 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -8748,7 +8744,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -8757,22 +8753,22 @@
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AK60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8780,7 +8776,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8791,31 +8787,31 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -8840,55 +8836,55 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -8896,7 +8892,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8907,31 +8903,31 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J62" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -8980,39 +8976,39 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9023,31 +9019,31 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9096,31 +9092,31 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9128,7 +9124,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9151,19 +9147,19 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9212,7 +9208,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9221,22 +9217,22 @@
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI64" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AI64" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AJ64" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9244,7 +9240,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9255,7 +9251,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9267,17 +9263,17 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9302,55 +9298,55 @@
         <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Y65" t="s" s="2">
+      <c r="Z65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
+      <c r="AK65" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AK65" t="s" s="2">
+      <c r="AL65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9358,7 +9354,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9369,7 +9365,7 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9381,19 +9377,19 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9442,31 +9438,31 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9474,7 +9470,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9497,19 +9493,19 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9558,7 +9554,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9570,19 +9566,19 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9590,7 +9586,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9613,19 +9609,19 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>78</v>
@@ -9674,7 +9670,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -9686,13 +9682,13 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AK68" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9706,7 +9702,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9717,7 +9713,7 @@
         <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
@@ -9729,13 +9725,13 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9786,22 +9782,22 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -9818,11 +9814,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9841,16 +9837,16 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="M70" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9900,7 +9896,7 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9912,10 +9908,10 @@
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -9932,11 +9928,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9949,25 +9945,25 @@
         <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="M71" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -10016,7 +10012,7 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -10028,10 +10024,10 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10048,7 +10044,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10071,17 +10067,17 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10106,14 +10102,14 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10130,7 +10126,7 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -10142,19 +10138,19 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10162,7 +10158,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10173,7 +10169,7 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -10185,17 +10181,17 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10244,31 +10240,31 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10276,7 +10272,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10299,19 +10295,19 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="M74" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10360,7 +10356,7 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10369,22 +10365,22 @@
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AJ74" t="s" s="2">
+      <c r="AK74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10392,7 +10388,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10403,7 +10399,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10415,19 +10411,19 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M75" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="N75" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>78</v>
@@ -10476,31 +10472,31 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI75" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AI75" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AJ75" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10508,7 +10504,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10519,7 +10515,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10531,17 +10527,17 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -10566,14 +10562,14 @@
         <v>78</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X76" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y76" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Y76" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="Z76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10590,31 +10586,31 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10622,7 +10618,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10633,7 +10629,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -10645,17 +10641,17 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
@@ -10704,31 +10700,31 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH77" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AI77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
+      <c r="AK77" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10736,7 +10732,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10747,7 +10743,7 @@
         <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -10759,13 +10755,13 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10816,25 +10812,25 @@
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
@@ -10848,7 +10844,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10871,19 +10867,19 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>78</v>
@@ -10932,7 +10928,7 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -10944,13 +10940,13 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>78</v>
@@ -10964,7 +10960,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10975,7 +10971,7 @@
         <v>76</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -10987,13 +10983,13 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11044,22 +11040,22 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11076,7 +11072,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11099,13 +11095,13 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11144,17 +11140,17 @@
         <v>78</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB81" s="2"/>
       <c r="AC81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -11166,7 +11162,7 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>78</v>
@@ -11186,10 +11182,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>78</v>
@@ -11199,7 +11195,7 @@
         <v>76</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11211,13 +11207,13 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="K82" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="L82" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11268,7 +11264,7 @@
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
@@ -11277,10 +11273,10 @@
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>78</v>
@@ -11300,11 +11296,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11317,25 +11313,25 @@
         <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="M83" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
@@ -11384,7 +11380,7 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -11396,10 +11392,10 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -11416,7 +11412,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11424,10 +11420,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>78</v>
@@ -11439,19 +11435,19 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -11476,14 +11472,14 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X84" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X84" t="s" s="2">
+      <c r="Y84" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y84" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="Z84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11500,31 +11496,31 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AK84" t="s" s="2">
+      <c r="AL84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11532,7 +11528,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11543,7 +11539,7 @@
         <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
@@ -11555,19 +11551,19 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -11616,31 +11612,31 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AK85" t="s" s="2">
+      <c r="AL85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -11648,7 +11644,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11671,16 +11667,16 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11730,7 +11726,7 @@
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -11742,10 +11738,10 @@
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -11762,7 +11758,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11773,31 +11769,31 @@
         <v>76</v>
       </c>
       <c r="F87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J87" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>78</v>
@@ -11846,25 +11842,25 @@
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>78</v>
@@ -11878,7 +11874,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11895,25 +11891,25 @@
         <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>78</v>
@@ -11962,7 +11958,7 @@
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -11974,13 +11970,13 @@
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>78</v>
@@ -11994,7 +11990,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12005,7 +12001,7 @@
         <v>76</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>78</v>
@@ -12017,13 +12013,13 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12074,22 +12070,22 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12106,11 +12102,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12129,16 +12125,16 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L90" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="M90" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12188,7 +12184,7 @@
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -12200,10 +12196,10 @@
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -12220,11 +12216,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12237,25 +12233,25 @@
         <v>78</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="M91" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>78</v>
@@ -12304,7 +12300,7 @@
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
@@ -12316,10 +12312,10 @@
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12336,7 +12332,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12344,31 +12340,31 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F92" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J92" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12418,31 +12414,31 @@
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12450,7 +12446,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12458,28 +12454,28 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J93" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12506,49 +12502,49 @@
         <v>78</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X93" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Y93" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Y93" t="s" s="2">
+      <c r="Z93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="Z93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="AK93" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>78</v>
